--- a/branches/master/CodeSystem-drug-cs.xlsx
+++ b/branches/master/CodeSystem-drug-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T12:25:09+00:00</t>
+    <t>2021-09-13T09:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-drug-cs.xlsx
+++ b/branches/master/CodeSystem-drug-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T09:25:05+00:00</t>
+    <t>2021-09-14T08:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-drug-cs.xlsx
+++ b/branches/master/CodeSystem-drug-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:10:14+00:00</t>
+    <t>2021-09-14T08:11:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/CodeSystem-drug-cs.xlsx
+++ b/branches/master/CodeSystem-drug-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:11:10+00:00</t>
+    <t>2021-09-14T08:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>Level</t>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Packaged Medicinal Product</t>
+  </si>
+  <si>
+    <t>VMPP</t>
+  </si>
+  <si>
+    <t>Virtual Package Product</t>
   </si>
 </sst>
 </file>
@@ -432,7 +438,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -502,6 +508,18 @@
       </c>
       <c r="D5" s="2"/>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/branches/master/CodeSystem-drug-cs.xlsx
+++ b/branches/master/CodeSystem-drug-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T08:27:49+00:00</t>
+    <t>2021-10-08T08:43:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>Level</t>
@@ -147,7 +147,13 @@
     <t>VMPP</t>
   </si>
   <si>
-    <t>Virtual Package Product</t>
+    <t>Virtual Medicinal Packaged Product</t>
+  </si>
+  <si>
+    <t>VMP</t>
+  </si>
+  <si>
+    <t>Virtual Medicinal Product</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -520,6 +526,18 @@
       </c>
       <c r="D6" s="2"/>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
